--- a/C++/3.Stacks_Queues/LC.xlsx
+++ b/C++/3.Stacks_Queues/LC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/802969a580a30f56/Desktop/DS_ALGO/C^M^M/3.Stacks_Queues/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAC95E44-7428-43CB-A3FB-998B4443743B}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{998A2C53-3848-40C9-8241-B55450185931}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,7 +120,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,6 +130,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -147,12 +153,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -437,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,6 +525,7 @@
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">

--- a/C++/3.Stacks_Queues/LC.xlsx
+++ b/C++/3.Stacks_Queues/LC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/802969a580a30f56/Desktop/DS_ALGO/C^M^M/3.Stacks_Queues/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{998A2C53-3848-40C9-8241-B55450185931}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3EE131B-EC71-4954-BCDF-5EA241E32ADB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,7 +445,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,6 +542,7 @@
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">

--- a/C++/3.Stacks_Queues/LC.xlsx
+++ b/C++/3.Stacks_Queues/LC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/802969a580a30f56/Desktop/DS_ALGO/C^M^M/3.Stacks_Queues/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3EE131B-EC71-4954-BCDF-5EA241E32ADB}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4994776C-853D-4880-A1D4-2B87AA3FF60B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,7 +445,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,6 +551,7 @@
       <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">

--- a/C++/3.Stacks_Queues/LC.xlsx
+++ b/C++/3.Stacks_Queues/LC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/802969a580a30f56/Desktop/DS_ALGO/C^M^M/3.Stacks_Queues/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4994776C-853D-4880-A1D4-2B87AA3FF60B}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAC9BE66-1CA9-4932-B707-4AFA0C7B1FCB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -442,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -557,6 +557,9 @@
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/C++/3.Stacks_Queues/LC.xlsx
+++ b/C++/3.Stacks_Queues/LC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/802969a580a30f56/Desktop/DS_ALGO/C^M^M/3.Stacks_Queues/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAC9BE66-1CA9-4932-B707-4AFA0C7B1FCB}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAD79BCE-3509-498C-AC5A-6BDC14FF6FF4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Topic Tags</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>https://www.lintcode.com/problem/645/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-intervals/</t>
+  </si>
+  <si>
+    <t>Array, Stack, Sorting</t>
   </si>
 </sst>
 </file>
@@ -445,7 +451,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,12 +560,22 @@
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -574,8 +590,9 @@
     <hyperlink ref="B11" r:id="rId9" xr:uid="{E78E194C-4B0B-45AB-8242-88DCEA661504}"/>
     <hyperlink ref="B12" r:id="rId10" xr:uid="{4495F4C1-52CE-41CB-8AEF-3293112A8A16}"/>
     <hyperlink ref="B13" r:id="rId11" xr:uid="{A4697377-A2B5-4994-AA6A-954599A8CBAF}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{57F1FBB3-05C9-4628-9435-E11C2DB2E31C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/C++/3.Stacks_Queues/LC.xlsx
+++ b/C++/3.Stacks_Queues/LC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/802969a580a30f56/Desktop/DS_ALGO/C^M^M/3.Stacks_Queues/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAD79BCE-3509-498C-AC5A-6BDC14FF6FF4}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E657320D-A060-4F4E-9186-97BFF728D864}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Topic Tags</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Array, Stack, Sorting</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/min-stack/</t>
   </si>
 </sst>
 </file>
@@ -448,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,6 +579,14 @@
         <v>19</v>
       </c>
       <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -591,8 +602,9 @@
     <hyperlink ref="B12" r:id="rId10" xr:uid="{4495F4C1-52CE-41CB-8AEF-3293112A8A16}"/>
     <hyperlink ref="B13" r:id="rId11" xr:uid="{A4697377-A2B5-4994-AA6A-954599A8CBAF}"/>
     <hyperlink ref="B14" r:id="rId12" xr:uid="{57F1FBB3-05C9-4628-9435-E11C2DB2E31C}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{B013B121-D50F-4464-A369-DD10B22F2FF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/C++/3.Stacks_Queues/LC.xlsx
+++ b/C++/3.Stacks_Queues/LC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/802969a580a30f56/Desktop/DS_ALGO/C^M^M/3.Stacks_Queues/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E657320D-A060-4F4E-9186-97BFF728D864}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F56828A-96E6-4417-AD0A-5712DF6E0261}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Topic Tags</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/min-stack/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/132-pattern/</t>
   </si>
 </sst>
 </file>
@@ -451,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,7 +544,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -549,42 +552,50 @@
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -597,14 +608,15 @@
     <hyperlink ref="B7" r:id="rId5" xr:uid="{5FA92E65-5E68-4F39-95D2-64B97ADC055D}"/>
     <hyperlink ref="B8" r:id="rId6" xr:uid="{188C9AAF-2F01-4182-8930-5EEE87475D10}"/>
     <hyperlink ref="B9" r:id="rId7" xr:uid="{273AB483-1CA9-473A-9E3F-FDAC650AD30E}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{BE0CA66E-5666-4028-B1C1-680CDB3D7179}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{E78E194C-4B0B-45AB-8242-88DCEA661504}"/>
-    <hyperlink ref="B12" r:id="rId10" xr:uid="{4495F4C1-52CE-41CB-8AEF-3293112A8A16}"/>
-    <hyperlink ref="B13" r:id="rId11" xr:uid="{A4697377-A2B5-4994-AA6A-954599A8CBAF}"/>
-    <hyperlink ref="B14" r:id="rId12" xr:uid="{57F1FBB3-05C9-4628-9435-E11C2DB2E31C}"/>
-    <hyperlink ref="B15" r:id="rId13" xr:uid="{B013B121-D50F-4464-A369-DD10B22F2FF6}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{BE0CA66E-5666-4028-B1C1-680CDB3D7179}"/>
+    <hyperlink ref="B12" r:id="rId9" xr:uid="{E78E194C-4B0B-45AB-8242-88DCEA661504}"/>
+    <hyperlink ref="B13" r:id="rId10" xr:uid="{4495F4C1-52CE-41CB-8AEF-3293112A8A16}"/>
+    <hyperlink ref="B14" r:id="rId11" xr:uid="{A4697377-A2B5-4994-AA6A-954599A8CBAF}"/>
+    <hyperlink ref="B15" r:id="rId12" xr:uid="{57F1FBB3-05C9-4628-9435-E11C2DB2E31C}"/>
+    <hyperlink ref="B16" r:id="rId13" xr:uid="{B013B121-D50F-4464-A369-DD10B22F2FF6}"/>
+    <hyperlink ref="B10" r:id="rId14" xr:uid="{CB2C3B0D-B51F-45F8-B881-423412D9C35A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>